--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2686.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2686.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16208836662912</v>
+        <v>0.9187717437744141</v>
       </c>
       <c r="B1">
-        <v>2.420115785186882</v>
+        <v>1.553135395050049</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.369341373443604</v>
       </c>
       <c r="D1">
-        <v>2.33249729663774</v>
+        <v>2.625953674316406</v>
       </c>
       <c r="E1">
-        <v>1.214863049341966</v>
+        <v>1.470887899398804</v>
       </c>
     </row>
   </sheetData>
